--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC CarePlan</t>
+    <t>長期照顧－照顧計畫</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>照顧計畫，用以表述長期照顧情境中涉及之照顧計畫內容。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 CarePlan Resource，以呈現長期照顧情境中涉及之照顧計畫內容。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -801,7 +801,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>照顧計畫的狀態。[應填入以下字串之一：active | on-hold | completed | cancelled | entered-in-error | unknown]</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -829,7 +829,7 @@
     <t>CarePlan.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | option</t>
+    <t>照顧計畫的意圖。[應填入以下字串之一：proposal | plan | order | option]</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -857,7 +857,7 @@
 </t>
   </si>
   <si>
-    <t>Type of plan</t>
+    <t>照顧計畫的分類。</t>
   </si>
   <si>
     <t>Type of plan.</t>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>AssessPlan</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
   </si>
   <si>
     <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
@@ -2229,15 +2232,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2248,26 +2251,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.96484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="173.13671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="145.83984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6979,16 +6982,16 @@
         <v>268</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>271</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6998,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>20</v>
@@ -7066,10 +7069,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7095,10 +7098,10 @@
         <v>124</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7149,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7178,10 +7181,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7207,14 +7210,14 @@
         <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7263,7 +7266,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7284,7 +7287,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7292,14 +7295,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7318,17 +7321,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7377,7 +7380,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
@@ -7392,24 +7395,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7518,10 +7521,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7632,10 +7635,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7661,7 +7664,7 @@
         <v>124</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>202</v>
@@ -7746,10 +7749,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7860,10 +7863,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7974,10 +7977,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8088,10 +8091,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8114,16 +8117,16 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8173,7 +8176,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8188,24 +8191,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8314,10 +8317,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8428,10 +8431,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8457,7 +8460,7 @@
         <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>202</v>
@@ -8542,10 +8545,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8656,10 +8659,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8770,10 +8773,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8884,14 +8887,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8910,19 +8913,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8971,7 +8974,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8986,24 +8989,24 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9112,10 +9115,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9226,10 +9229,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9252,16 +9255,16 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9311,7 +9314,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9320,7 +9323,7 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>99</v>
@@ -9329,21 +9332,21 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9366,23 +9369,23 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>20</v>
@@ -9427,7 +9430,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9436,7 +9439,7 @@
         <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>99</v>
@@ -9445,25 +9448,25 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9482,13 +9485,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9539,7 +9542,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9554,13 +9557,13 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9568,10 +9571,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9594,16 +9597,16 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9653,7 +9656,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9668,13 +9671,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
@@ -9682,10 +9685,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9794,10 +9797,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9908,10 +9911,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9937,7 +9940,7 @@
         <v>124</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>202</v>
@@ -10022,10 +10025,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10136,10 +10139,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10250,10 +10253,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10364,10 +10367,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10390,16 +10393,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10449,7 +10452,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10478,10 +10481,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10590,10 +10593,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10704,10 +10707,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10733,7 +10736,7 @@
         <v>124</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>202</v>
@@ -10818,10 +10821,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10932,10 +10935,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11046,10 +11049,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11160,10 +11163,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11186,17 +11189,17 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11245,7 +11248,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11260,13 +11263,13 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>20</v>
@@ -11274,10 +11277,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11300,19 +11303,19 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11361,7 +11364,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11376,24 +11379,24 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11502,10 +11505,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11616,10 +11619,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11645,7 +11648,7 @@
         <v>124</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>202</v>
@@ -11730,10 +11733,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11844,10 +11847,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11958,10 +11961,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12072,10 +12075,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12098,19 +12101,19 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12159,7 +12162,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12174,7 +12177,7 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>20</v>
@@ -12188,10 +12191,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12214,19 +12217,19 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12275,7 +12278,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12293,21 +12296,21 @@
         <v>20</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12416,10 +12419,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12530,10 +12533,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12559,7 +12562,7 @@
         <v>124</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>202</v>
@@ -12644,10 +12647,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12758,10 +12761,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12872,10 +12875,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12986,10 +12989,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13012,17 +13015,17 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13071,7 +13074,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13083,13 +13086,13 @@
         <v>20</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>20</v>
@@ -13100,10 +13103,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13212,10 +13215,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13326,14 +13329,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13355,10 +13358,10 @@
         <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>134</v>
@@ -13413,7 +13416,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13442,10 +13445,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13471,13 +13474,13 @@
         <v>268</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13506,10 +13509,10 @@
         <v>273</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>20</v>
@@ -13527,7 +13530,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13556,10 +13559,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13582,19 +13585,19 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -13643,7 +13646,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13658,10 +13661,10 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>20</v>
@@ -13672,10 +13675,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13698,19 +13701,19 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>20</v>
@@ -13759,7 +13762,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13777,21 +13780,21 @@
         <v>20</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13814,19 +13817,19 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -13875,7 +13878,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13884,16 +13887,16 @@
         <v>87</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>20</v>
@@ -13904,10 +13907,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13930,17 +13933,17 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -13989,7 +13992,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13998,7 +14001,7 @@
         <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>99</v>
@@ -14007,7 +14010,7 @@
         <v>20</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>20</v>
@@ -14018,10 +14021,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14130,10 +14133,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14244,14 +14247,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14273,10 +14276,10 @@
         <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>134</v>
@@ -14331,7 +14334,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14360,10 +14363,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14389,14 +14392,14 @@
         <v>107</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>20</v>
@@ -14424,10 +14427,10 @@
         <v>143</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>20</v>
@@ -14445,7 +14448,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14463,7 +14466,7 @@
         <v>20</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>20</v>
@@ -14474,10 +14477,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14500,17 +14503,17 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>182</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>20</v>
@@ -14559,7 +14562,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14588,10 +14591,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14620,13 +14623,13 @@
         <v>187</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>189</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
@@ -14675,7 +14678,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14704,10 +14707,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14733,16 +14736,16 @@
         <v>268</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>20</v>
@@ -14770,10 +14773,10 @@
         <v>273</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>20</v>
@@ -14791,7 +14794,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14806,24 +14809,24 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14849,13 +14852,13 @@
         <v>268</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14884,10 +14887,10 @@
         <v>273</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>20</v>
@@ -14905,7 +14908,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14920,7 +14923,7 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>20</v>
@@ -14934,10 +14937,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14960,16 +14963,16 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15019,7 +15022,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15034,7 +15037,7 @@
         <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>20</v>
@@ -15048,10 +15051,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15074,17 +15077,17 @@
         <v>20</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>20</v>
@@ -15133,7 +15136,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15151,7 +15154,7 @@
         <v>20</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>20</v>
@@ -15162,10 +15165,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15191,16 +15194,16 @@
         <v>107</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>20</v>
@@ -15228,10 +15231,10 @@
         <v>143</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>20</v>
@@ -15249,7 +15252,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>87</v>
@@ -15264,24 +15267,24 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15307,13 +15310,13 @@
         <v>268</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15363,7 +15366,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15378,7 +15381,7 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>20</v>
@@ -15392,10 +15395,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15418,70 +15421,70 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF116" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q116" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15496,10 +15499,10 @@
         <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>20</v>
@@ -15510,10 +15513,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15536,17 +15539,17 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>20</v>
@@ -15595,7 +15598,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15610,24 +15613,24 @@
         <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15650,19 +15653,19 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -15711,7 +15714,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -15729,21 +15732,21 @@
         <v>20</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15766,19 +15769,19 @@
         <v>20</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>20</v>
@@ -15827,7 +15830,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15842,24 +15845,24 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15882,13 +15885,13 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15918,16 +15921,16 @@
         <v>273</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
@@ -15937,7 +15940,7 @@
         <v>137</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15955,24 +15958,24 @@
         <v>20</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>20</v>
@@ -15994,13 +15997,13 @@
         <v>20</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16051,7 +16054,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16069,25 +16072,25 @@
         <v>20</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16106,17 +16109,17 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>20</v>
@@ -16165,7 +16168,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16183,21 +16186,21 @@
         <v>20</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16220,13 +16223,13 @@
         <v>20</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16277,7 +16280,7 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16295,21 +16298,21 @@
         <v>20</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16335,10 +16338,10 @@
         <v>124</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16389,7 +16392,7 @@
         <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -16407,21 +16410,21 @@
         <v>20</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16444,17 +16447,17 @@
         <v>20</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>20</v>
@@ -16503,7 +16506,7 @@
         <v>20</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16518,16 +16521,16 @@
         <v>99</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2232,15 +2232,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2251,26 +2251,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.41015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.43359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,7 +680,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCarePlan.xlsx
+++ b/docs/StructureDefinition-LTCCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
